--- a/assets/templates/template1.xlsx
+++ b/assets/templates/template1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skull\GolandProjects\nokotan-backend-go\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC40B60-4D86-454E-94BD-6DB9C0EC14E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672B8441-9A14-4B11-9EC6-18D2699AE4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{998351CD-F87D-413F-9088-76B3C859A326}"/>
   </bookViews>
@@ -66,8 +66,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="_([$IDR]\ * #,##0.00_);_([$IDR]\ * \(#,##0.00\);_([$IDR]\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_-[$Rp-3809]* #,##0.00_-;\-[$Rp-3809]* #,##0.00_-;_-[$Rp-3809]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_([$IDR]\ * #,##0.00_);_([$IDR]\ * \(#,##0.00\);_([$IDR]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-[$Rp-3809]* #,##0.00_-;\-[$Rp-3809]* #,##0.00_-;_-[$Rp-3809]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -124,10 +124,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -450,7 +450,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,7 +462,7 @@
     <col min="5" max="5" width="13.21875" style="5" customWidth="1"/>
     <col min="6" max="6" width="17.77734375" style="5" customWidth="1"/>
     <col min="7" max="7" width="13.5546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">

--- a/assets/templates/template1.xlsx
+++ b/assets/templates/template1.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skull\GolandProjects\nokotan-backend-go\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672B8441-9A14-4B11-9EC6-18D2699AE4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542F989B-F63C-4B99-BBB8-3B06304AD176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{998351CD-F87D-413F-9088-76B3C859A326}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{998351CD-F87D-413F-9088-76B3C859A326}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$40</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -43,22 +46,52 @@
     <t>No</t>
   </si>
   <si>
-    <t>Buy Price</t>
-  </si>
-  <si>
     <t>Margin</t>
   </si>
   <si>
     <t>Tax</t>
   </si>
   <si>
-    <t>Sale Price</t>
-  </si>
-  <si>
     <t>Stock</t>
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Name:</t>
+  </si>
+  <si>
+    <t>Role:</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>Sub Total</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Sale</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t>Out</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>Shift</t>
+  </si>
+  <si>
+    <t>Officer</t>
+  </si>
+  <si>
+    <t>Product</t>
   </si>
 </sst>
 </file>
@@ -66,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_([$IDR]\ * #,##0.00_);_([$IDR]\ * \(#,##0.00\);_([$IDR]\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-[$Rp-3809]* #,##0.00_-;\-[$Rp-3809]* #,##0.00_-;_-[$Rp-3809]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$Rp-3809]* #,##0.00_-;\-[$Rp-3809]* #,##0.00_-;_-[$Rp-3809]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="[$-13809]dd\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,16 +110,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -109,30 +168,228 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -148,6 +405,114 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>110834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1752600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>380612</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Logo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC568780-8B35-9935-0AE8-8894AE66C740}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="41188" b="24196"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="471052"/>
+          <a:ext cx="2362200" cy="1073342"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>110834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1752600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>60572</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Logo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B545F81-189F-40D4-86AC-5700CB32A1AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="41188" b="24196"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="476594"/>
+          <a:ext cx="2362200" cy="1069878"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -447,51 +812,464 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F8B0F4-EBAF-4198-B090-9FE40F21900D}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="B1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="26.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="6"/>
+    <col min="3" max="3" width="45.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="35.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="34.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="40.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="38.44140625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="44.5546875" style="14" customWidth="1"/>
+    <col min="10" max="10" width="36.5546875" style="17" customWidth="1"/>
+    <col min="11" max="11" width="36.88671875" customWidth="1"/>
+    <col min="12" max="12" width="37.77734375" customWidth="1"/>
+    <col min="13" max="13" width="43.109375" customWidth="1"/>
+    <col min="14" max="14" width="45.88671875" customWidth="1"/>
+    <col min="15" max="15" width="47.21875" customWidth="1"/>
+    <col min="16" max="16" width="52.21875" customWidth="1"/>
+    <col min="17" max="17" width="48" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B1" s="10"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="42"/>
+      <c r="Q1"/>
+    </row>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
+      <c r="Q2"/>
+    </row>
+    <row r="3" spans="2:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="24"/>
+      <c r="J3" s="25"/>
+      <c r="Q3"/>
+    </row>
+    <row r="4" spans="2:17" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="28"/>
+      <c r="J4" s="29"/>
+      <c r="Q4"/>
+    </row>
+    <row r="5" spans="2:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="30"/>
+      <c r="J5" s="31"/>
+      <c r="Q5"/>
+    </row>
+    <row r="6" spans="2:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="42"/>
+      <c r="Q6"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="42"/>
+      <c r="Q7"/>
+    </row>
+    <row r="8" spans="2:17" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C8" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="35"/>
+      <c r="J8" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="27"/>
+    </row>
+    <row r="9" spans="2:17" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="33"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="27"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B10" s="11"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="D4:G5"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="H8:I8"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{654D4C2A-299D-4C82-9046-95826DA6CE6A}">
+  <dimension ref="B1:Q10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="6"/>
+    <col min="3" max="3" width="45.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47.109375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="35.77734375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="34.109375" style="15" customWidth="1"/>
+    <col min="7" max="7" width="40.33203125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="38.44140625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="44.5546875" style="15" customWidth="1"/>
+    <col min="10" max="10" width="36.5546875" style="15" customWidth="1"/>
+    <col min="11" max="11" width="36.88671875" style="15" customWidth="1"/>
+    <col min="12" max="12" width="37.77734375" style="15" customWidth="1"/>
+    <col min="13" max="13" width="43.109375" style="15" customWidth="1"/>
+    <col min="14" max="14" width="45.88671875" style="15" customWidth="1"/>
+    <col min="15" max="15" width="47.21875" style="15" customWidth="1"/>
+    <col min="16" max="16" width="52.21875" style="17" customWidth="1"/>
+    <col min="17" max="17" width="48" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B1" s="10"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1"/>
+    </row>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2"/>
+    </row>
+    <row r="3" spans="2:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="24"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3"/>
+    </row>
+    <row r="4" spans="2:17" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="28"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4"/>
+    </row>
+    <row r="5" spans="2:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="30"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5"/>
+    </row>
+    <row r="6" spans="2:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7"/>
+    </row>
+    <row r="8" spans="2:17" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="38"/>
+      <c r="F8" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="38"/>
+      <c r="H8" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="18"/>
+    </row>
+    <row r="9" spans="2:17" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J9" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="K9" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="18"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B10" s="11"/>
+      <c r="C10" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="D4:G5"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="F8:G8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/assets/templates/template1.xlsx
+++ b/assets/templates/template1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skull\GolandProjects\nokotan-backend-go\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542F989B-F63C-4B99-BBB8-3B06304AD176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C14A563-B7FC-4D34-B0E8-3223C793A9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{998351CD-F87D-413F-9088-76B3C859A326}"/>
   </bookViews>
@@ -268,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -373,23 +373,22 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -812,23 +811,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F8B0F4-EBAF-4198-B090-9FE40F21900D}">
-  <dimension ref="B1:Q10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="8.88671875" style="6"/>
     <col min="3" max="3" width="45.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="35.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="34.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="40.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="38.44140625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="44.5546875" style="14" customWidth="1"/>
-    <col min="10" max="10" width="36.5546875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" style="14" customWidth="1"/>
+    <col min="10" max="10" width="37.33203125" style="17" customWidth="1"/>
     <col min="11" max="11" width="36.88671875" customWidth="1"/>
     <col min="12" max="12" width="37.77734375" customWidth="1"/>
     <col min="13" max="13" width="43.109375" customWidth="1"/>
@@ -838,7 +837,8 @@
     <col min="17" max="17" width="48" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1"/>
       <c r="B1" s="10"/>
       <c r="C1" s="4"/>
       <c r="D1" s="7"/>
@@ -847,10 +847,9 @@
       <c r="G1" s="7"/>
       <c r="H1" s="41"/>
       <c r="I1" s="41"/>
-      <c r="J1" s="42"/>
-      <c r="Q1"/>
-    </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="7"/>
@@ -859,10 +858,9 @@
       <c r="G2" s="7"/>
       <c r="H2" s="41"/>
       <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
-      <c r="Q2"/>
-    </row>
-    <row r="3" spans="2:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:17" s="40" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
@@ -874,9 +872,9 @@
       </c>
       <c r="I3" s="24"/>
       <c r="J3" s="25"/>
-      <c r="Q3"/>
-    </row>
-    <row r="4" spans="2:17" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:17" s="40" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
       <c r="D4" s="26"/>
@@ -888,9 +886,9 @@
       </c>
       <c r="I4" s="28"/>
       <c r="J4" s="29"/>
-      <c r="Q4"/>
-    </row>
-    <row r="5" spans="2:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:17" s="40" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="26"/>
@@ -902,21 +900,18 @@
       </c>
       <c r="I5" s="30"/>
       <c r="J5" s="31"/>
-      <c r="Q5"/>
-    </row>
-    <row r="6" spans="2:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:17" s="40" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="23"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="42"/>
-      <c r="Q6"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="7"/>
@@ -925,10 +920,8 @@
       <c r="G7" s="7"/>
       <c r="H7" s="41"/>
       <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
-      <c r="Q7"/>
-    </row>
-    <row r="8" spans="2:17" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:17" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="32" t="s">
         <v>1</v>
       </c>
@@ -962,7 +955,7 @@
       <c r="P8" s="18"/>
       <c r="Q8" s="27"/>
     </row>
-    <row r="9" spans="2:17" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
@@ -984,7 +977,7 @@
       <c r="P9" s="16"/>
       <c r="Q9" s="27"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B10" s="11"/>
       <c r="C10" s="9"/>
       <c r="D10" s="12"/>
@@ -1018,33 +1011,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{654D4C2A-299D-4C82-9046-95826DA6CE6A}">
-  <dimension ref="B1:Q10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="8.88671875" style="6"/>
     <col min="3" max="3" width="45.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="47.109375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="35.77734375" style="15" customWidth="1"/>
-    <col min="6" max="6" width="34.109375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="40.33203125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="38.44140625" style="15" customWidth="1"/>
-    <col min="9" max="9" width="44.5546875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="36.5546875" style="15" customWidth="1"/>
-    <col min="11" max="11" width="36.88671875" style="15" customWidth="1"/>
-    <col min="12" max="12" width="37.77734375" style="15" customWidth="1"/>
-    <col min="13" max="13" width="43.109375" style="15" customWidth="1"/>
-    <col min="14" max="14" width="45.88671875" style="15" customWidth="1"/>
-    <col min="15" max="15" width="47.21875" style="15" customWidth="1"/>
-    <col min="16" max="16" width="52.21875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="21" style="15" customWidth="1"/>
+    <col min="7" max="8" width="26.77734375" style="15" customWidth="1"/>
+    <col min="9" max="9" width="28.109375" style="15" customWidth="1"/>
+    <col min="10" max="10" width="27.77734375" style="15" customWidth="1"/>
+    <col min="11" max="11" width="28.109375" style="15" customWidth="1"/>
+    <col min="12" max="12" width="23.5546875" style="15" customWidth="1"/>
+    <col min="13" max="13" width="29.33203125" style="15" customWidth="1"/>
+    <col min="14" max="14" width="30.44140625" style="15" customWidth="1"/>
+    <col min="15" max="15" width="32.21875" style="15" customWidth="1"/>
+    <col min="16" max="16" width="37.109375" style="17" customWidth="1"/>
     <col min="17" max="17" width="48" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1"/>
       <c r="B1" s="10"/>
       <c r="C1" s="4"/>
       <c r="D1" s="7"/>
@@ -1053,16 +1046,9 @@
       <c r="G1" s="7"/>
       <c r="H1" s="41"/>
       <c r="I1" s="41"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1"/>
-    </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="7"/>
@@ -1071,16 +1057,9 @@
       <c r="G2" s="7"/>
       <c r="H2" s="41"/>
       <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2"/>
-    </row>
-    <row r="3" spans="2:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:17" s="40" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
@@ -1092,15 +1071,9 @@
       </c>
       <c r="I3" s="24"/>
       <c r="J3" s="25"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3"/>
-    </row>
-    <row r="4" spans="2:17" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:17" s="40" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
       <c r="D4" s="26"/>
@@ -1112,15 +1085,9 @@
       </c>
       <c r="I4" s="28"/>
       <c r="J4" s="29"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4"/>
-    </row>
-    <row r="5" spans="2:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:17" s="40" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="26"/>
@@ -1132,33 +1099,18 @@
       </c>
       <c r="I5" s="30"/>
       <c r="J5" s="31"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5"/>
-    </row>
-    <row r="6" spans="2:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:17" s="40" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="23"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="7"/>
@@ -1167,50 +1119,42 @@
       <c r="G7" s="7"/>
       <c r="H7" s="41"/>
       <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7"/>
-    </row>
-    <row r="8" spans="2:17" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="36" t="s">
+    </row>
+    <row r="8" spans="1:17" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="37" t="s">
+      <c r="E8" s="37"/>
+      <c r="F8" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="38"/>
+      <c r="G8" s="37"/>
       <c r="H8" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
       <c r="K8" s="35"/>
       <c r="L8" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
       <c r="O8" s="35"/>
       <c r="P8" s="32" t="s">
         <v>5</v>
       </c>
       <c r="Q8" s="18"/>
     </row>
-    <row r="9" spans="2:17" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
+    <row r="9" spans="1:17" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="19" t="s">
         <v>0</v>
       </c>
@@ -1250,7 +1194,7 @@
       <c r="P9" s="33"/>
       <c r="Q9" s="18"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B10" s="11"/>
       <c r="C10" s="9"/>
     </row>

--- a/assets/templates/template1.xlsx
+++ b/assets/templates/template1.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skull\GolandProjects\nokotan-backend-go\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C14A563-B7FC-4D34-B0E8-3223C793A9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB852FC-E245-4548-840D-C42884F93864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{998351CD-F87D-413F-9088-76B3C859A326}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{998351CD-F87D-413F-9088-76B3C859A326}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$40</definedName>
@@ -38,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>No</t>
   </si>
@@ -67,9 +65,6 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>Sub Total</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -79,12 +74,6 @@
     <t>Buy</t>
   </si>
   <si>
-    <t>Out</t>
-  </si>
-  <si>
-    <t>In</t>
-  </si>
-  <si>
     <t>Shift</t>
   </si>
   <si>
@@ -92,16 +81,33 @@
   </si>
   <si>
     <t>Product</t>
+  </si>
+  <si>
+    <t>Sold</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>Expires</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Subtotal</t>
+  </si>
+  <si>
+    <t>Income</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-[$Rp-3809]* #,##0.00_-;\-[$Rp-3809]* #,##0.00_-;_-[$Rp-3809]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="[$-13809]dd\ mmmm\ yyyy;@"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -145,7 +151,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -172,39 +178,133 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -213,9 +313,7 @@
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -232,24 +330,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -258,9 +345,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -268,126 +353,79 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -472,15 +510,69 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1752600</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>60572</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>380612</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Picture 3" descr="Logo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B545F81-189F-40D4-86AC-5700CB32A1AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C0237B7-8309-4583-BF20-EB456C148040}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="41188" b="24196"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="476594"/>
+          <a:ext cx="2362200" cy="1069878"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>110834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1752600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>380612</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Logo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F6FF181-8E1E-44AC-93EB-61DCF25ADF8C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -811,184 +903,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F8B0F4-EBAF-4198-B090-9FE40F21900D}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="B1:Q9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" style="6"/>
-    <col min="3" max="3" width="45.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.77734375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="28.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" style="14" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" style="14" customWidth="1"/>
-    <col min="10" max="10" width="37.33203125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="45.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21.77734375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="28.77734375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="37.33203125" style="3" customWidth="1"/>
     <col min="11" max="11" width="36.88671875" customWidth="1"/>
     <col min="12" max="12" width="37.77734375" customWidth="1"/>
     <col min="13" max="13" width="43.109375" customWidth="1"/>
     <col min="14" max="14" width="45.88671875" customWidth="1"/>
     <col min="15" max="15" width="47.21875" customWidth="1"/>
     <col min="16" max="16" width="52.21875" customWidth="1"/>
-    <col min="17" max="17" width="48" style="8" customWidth="1"/>
+    <col min="17" max="17" width="48" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-    </row>
-    <row r="2" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-    </row>
-    <row r="3" spans="1:17" s="40" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23" t="s">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="J1"/>
+      <c r="Q1"/>
+    </row>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="J2"/>
+      <c r="Q2"/>
+    </row>
+    <row r="3" spans="2:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
+      <c r="Q3"/>
+    </row>
+    <row r="4" spans="2:17" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="25"/>
-    </row>
-    <row r="4" spans="1:17" s="40" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="23" t="s">
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
+      <c r="Q4"/>
+    </row>
+    <row r="5" spans="2:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="29"/>
-    </row>
-    <row r="5" spans="1:17" s="40" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="1:17" s="40" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-    </row>
-    <row r="8" spans="1:17" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="32" t="s">
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
+      <c r="Q5"/>
+    </row>
+    <row r="6" spans="2:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G6" s="4"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="Q6"/>
+    </row>
+    <row r="7" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J7"/>
+      <c r="Q7"/>
+    </row>
+    <row r="8" spans="2:17" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="32" t="s">
+      <c r="F8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="G8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="34" t="s">
+      <c r="I8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="27"/>
-    </row>
-    <row r="9" spans="1:17" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="33"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="27"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" spans="2:17" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="20"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
@@ -1001,7 +1047,8 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="J8:J9"/>
-    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -1010,210 +1057,300 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{654D4C2A-299D-4C82-9046-95826DA6CE6A}">
-  <dimension ref="A1:Q10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6820943-A885-49CD-A80E-CF6AED630037}">
+  <dimension ref="B1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" style="6"/>
-    <col min="3" max="3" width="45.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.6640625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="21" style="15" customWidth="1"/>
-    <col min="7" max="8" width="26.77734375" style="15" customWidth="1"/>
-    <col min="9" max="9" width="28.109375" style="15" customWidth="1"/>
-    <col min="10" max="10" width="27.77734375" style="15" customWidth="1"/>
-    <col min="11" max="11" width="28.109375" style="15" customWidth="1"/>
-    <col min="12" max="12" width="23.5546875" style="15" customWidth="1"/>
-    <col min="13" max="13" width="29.33203125" style="15" customWidth="1"/>
-    <col min="14" max="14" width="30.44140625" style="15" customWidth="1"/>
-    <col min="15" max="15" width="32.21875" style="15" customWidth="1"/>
-    <col min="16" max="16" width="37.109375" style="17" customWidth="1"/>
-    <col min="17" max="17" width="48" style="8" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="45.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21.77734375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="28.77734375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="37.33203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="36.88671875" customWidth="1"/>
+    <col min="12" max="12" width="37.77734375" customWidth="1"/>
+    <col min="13" max="13" width="43.109375" customWidth="1"/>
+    <col min="14" max="14" width="45.88671875" customWidth="1"/>
+    <col min="15" max="15" width="47.21875" customWidth="1"/>
+    <col min="16" max="16" width="52.21875" customWidth="1"/>
+    <col min="17" max="17" width="48" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-    </row>
-    <row r="2" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-    </row>
-    <row r="3" spans="1:17" s="40" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23" t="s">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="J1"/>
+      <c r="Q1"/>
+    </row>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="J2"/>
+      <c r="Q2"/>
+    </row>
+    <row r="3" spans="2:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
+      <c r="Q3"/>
+    </row>
+    <row r="4" spans="2:17" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="25"/>
-    </row>
-    <row r="4" spans="1:17" s="40" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="23" t="s">
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
+      <c r="Q4"/>
+    </row>
+    <row r="5" spans="2:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="29"/>
-    </row>
-    <row r="5" spans="1:17" s="40" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="1:17" s="40" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-    </row>
-    <row r="8" spans="1:17" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="39" t="s">
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
+      <c r="Q5"/>
+    </row>
+    <row r="6" spans="2:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G6" s="4"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="Q6"/>
+    </row>
+    <row r="7" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J7"/>
+      <c r="Q7"/>
+    </row>
+    <row r="8" spans="2:17" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="18"/>
-    </row>
-    <row r="9" spans="1:17" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="N9" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="18"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
-      <c r="C10" s="9"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" spans="2:17" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="20"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="D8:E8"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="F8:H9"/>
+    <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="D4:G5"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="I5:J5"/>
-    <mergeCell ref="F8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A137E4-70A9-4A38-83F7-0ED154ACBD8E}">
+  <dimension ref="B1:Q9"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="45.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21.77734375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="28.77734375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="37.33203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="36.88671875" customWidth="1"/>
+    <col min="12" max="12" width="37.77734375" customWidth="1"/>
+    <col min="13" max="13" width="43.109375" customWidth="1"/>
+    <col min="14" max="14" width="45.88671875" customWidth="1"/>
+    <col min="15" max="15" width="47.21875" customWidth="1"/>
+    <col min="16" max="16" width="52.21875" customWidth="1"/>
+    <col min="17" max="17" width="48" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="J1"/>
+      <c r="Q1"/>
+    </row>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="J2"/>
+      <c r="Q2"/>
+    </row>
+    <row r="3" spans="2:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
+      <c r="Q3"/>
+    </row>
+    <row r="4" spans="2:17" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
+      <c r="Q4"/>
+    </row>
+    <row r="5" spans="2:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
+      <c r="Q5"/>
+    </row>
+    <row r="6" spans="2:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G6" s="4"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="Q6"/>
+    </row>
+    <row r="7" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J7"/>
+      <c r="Q7"/>
+    </row>
+    <row r="8" spans="2:17" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" spans="2:17" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="20"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="D4:G5"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>